--- a/data/folklore_facility/data.xlsx
+++ b/data/folklore_facility/data.xlsx
@@ -498,7 +498,7 @@
         <v>087-861-4520</v>
       </c>
       <c r="G3" t="str">
-        <v>http://www.city.takamatsu.kagawa.jp/kurashi/kosodate/bunka/rekishi/index.html</v>
+        <v>https://www.city.takamatsu.kagawa.jp/kurashi/kosodate/bunka/rekishi/index.html</v>
       </c>
       <c r="H3" t="str">
         <v/>
@@ -536,7 +536,7 @@
         <v>087-845-8484</v>
       </c>
       <c r="G4" t="str">
-        <v>http://www.city.takamatsu.kagawa.jp/kurashi/kosodate/bunka/ishi.html</v>
+        <v>https://www.city.takamatsu.kagawa.jp/kurashi/kosodate/bunka/ishimin/index.html</v>
       </c>
       <c r="H4" t="str">
         <v/>
@@ -574,7 +574,7 @@
         <v>087-879-0717</v>
       </c>
       <c r="G5" t="str">
-        <v>http://www.city.takamatsu.kagawa.jp/kurashi/kosodate/bunka/konan.html</v>
+        <v>https://www.city.takamatsu.kagawa.jp/kurashi/kosodate/bunka/kounanrekishi/index.html</v>
       </c>
       <c r="H5" t="str">
         <v/>
@@ -612,7 +612,7 @@
         <v>087-874-8840</v>
       </c>
       <c r="G6" t="str">
-        <v>http://www.city.takamatsu.kagawa.jp/kurashi/kosodate/bunka/sanuki.html</v>
+        <v>https://www.city.takamatsu.kagawa.jp/kurashi/kosodate/bunka/sanuki.html</v>
       </c>
       <c r="H6" t="str">
         <v/>

--- a/data/folklore_facility/data.xlsx
+++ b/data/folklore_facility/data.xlsx
@@ -1,46 +1,222 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\file01\文化財課\文化財管理係\庶務\R6インフォ回答\01_照会中\【20250317デジタル戦略課】オープンデータの更新及び新規データの追加について(照会）\各係\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC9C1B40-C43C-44E9-94A9-F68509E957BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="59">
+  <si>
+    <t>#property</t>
+  </si>
+  <si>
+    <t>latitude</t>
+  </si>
+  <si>
+    <t>longitude</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>telephoneNumber</t>
+  </si>
+  <si>
+    <t>referenceObject</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>availableDate</t>
+  </si>
+  <si>
+    <t>startTime</t>
+  </si>
+  <si>
+    <t>endTime</t>
+  </si>
+  <si>
+    <t>availableDateNote</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>34.34397</t>
+  </si>
+  <si>
+    <t>134.03447778</t>
+  </si>
+  <si>
+    <t>菊池寛記念館</t>
+  </si>
+  <si>
+    <t>高松市昭和町一丁目2-20</t>
+  </si>
+  <si>
+    <t>087-861-4502</t>
+  </si>
+  <si>
+    <t>https://www.city.takamatsu.kagawa.jp/kurashi/kosodate/bunka/kikuchikan/index.html</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>火水木金土日</t>
+  </si>
+  <si>
+    <t>09:00</t>
+  </si>
+  <si>
+    <t>17:00</t>
+  </si>
+  <si>
+    <t>入館は16：30まで。月曜日（祝日の場合は翌平日）、年末年始（12/29～1/3）利用不可</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>高松市歴史資料館</t>
+  </si>
+  <si>
+    <t>087-861-4520</t>
+  </si>
+  <si>
+    <t>https://www.city.takamatsu.kagawa.jp/kurashi/kosodate/bunka/rekishi/index.html</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>34.35271028</t>
+  </si>
+  <si>
+    <t>134.13403806</t>
+  </si>
+  <si>
+    <t>高松市石の民俗資料館</t>
+  </si>
+  <si>
+    <t>高松市牟礼町牟礼1810</t>
+  </si>
+  <si>
+    <t>087-845-8484</t>
+  </si>
+  <si>
+    <t>https://www.city.takamatsu.kagawa.jp/kurashi/kosodate/bunka/ishimin/index.html</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>34.23924278</t>
+  </si>
+  <si>
+    <t>134.02162667</t>
+  </si>
+  <si>
+    <t>高松市香南歴史民俗郷土館</t>
+  </si>
+  <si>
+    <t>高松市香南町由佐253-1</t>
+  </si>
+  <si>
+    <t>087-879-0717</t>
+  </si>
+  <si>
+    <t>https://www.city.takamatsu.kagawa.jp/kurashi/kosodate/bunka/kounanrekishi/index.html</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>34.30283944</t>
+  </si>
+  <si>
+    <t>133.94675889</t>
+  </si>
+  <si>
+    <t>高松市讃岐国分寺跡資料館</t>
+  </si>
+  <si>
+    <t>高松市国分寺町国分2177-1</t>
+  </si>
+  <si>
+    <t>087-874-8840</t>
+  </si>
+  <si>
+    <t>https://www.city.takamatsu.kagawa.jp/kurashi/kosodate/bunka/sanuki.html</t>
+  </si>
+  <si>
+    <t>16:30</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>34.3435211</t>
+  </si>
+  <si>
+    <t>134.0458211</t>
+  </si>
+  <si>
+    <t>高松市埋蔵文化財センター</t>
+  </si>
+  <si>
+    <t>高松市番町一丁目5-1</t>
+  </si>
+  <si>
+    <t>087-823-2714</t>
+  </si>
+  <si>
+    <t>月火水木金</t>
+  </si>
+  <si>
+    <t>祝日、年末年始（12/29～1/3）利用不可</t>
+  </si>
+  <si>
+    <t>https://www.city.takamatsu.kagawa.jp/kurashi/kosodate/bunka/maizobunkazai/index.html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -65,13 +241,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -396,281 +580,284 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>#property</v>
-      </c>
-      <c r="B1" t="str">
-        <v>latitude</v>
-      </c>
-      <c r="C1" t="str">
-        <v>longitude</v>
-      </c>
-      <c r="D1" t="str">
-        <v>name</v>
-      </c>
-      <c r="E1" t="str">
-        <v>address</v>
-      </c>
-      <c r="F1" t="str">
-        <v>telephoneNumber</v>
-      </c>
-      <c r="G1" t="str">
-        <v>referenceObject</v>
-      </c>
-      <c r="H1" t="str">
-        <v>note</v>
-      </c>
-      <c r="I1" t="str">
-        <v>availableDate</v>
-      </c>
-      <c r="J1" t="str">
-        <v>startTime</v>
-      </c>
-      <c r="K1" t="str">
-        <v>endTime</v>
-      </c>
-      <c r="L1" t="str">
-        <v>availableDateNote</v>
+    <row r="1" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>1</v>
-      </c>
-      <c r="B2" t="str">
-        <v>34.34397</v>
-      </c>
-      <c r="C2" t="str">
-        <v>134.03447778</v>
-      </c>
-      <c r="D2" t="str">
-        <v>菊池寛記念館</v>
-      </c>
-      <c r="E2" t="str">
-        <v>高松市昭和町一丁目2-20</v>
-      </c>
-      <c r="F2" t="str">
-        <v>087-861-4502</v>
-      </c>
-      <c r="G2" t="str">
-        <v>https://www.city.takamatsu.kagawa.jp/kurashi/kosodate/bunka/kikuchikan/index.html</v>
-      </c>
-      <c r="H2" t="str">
-        <v/>
-      </c>
-      <c r="I2" t="str">
-        <v>火水木金土日</v>
-      </c>
-      <c r="J2" t="str">
-        <v>09:00</v>
-      </c>
-      <c r="K2" t="str">
-        <v>17:00</v>
-      </c>
-      <c r="L2" t="str">
-        <v>入館は16：30まで。月曜日（祝日の場合は翌平日）、年末年始（12/29～1/3）利用不可</v>
+    <row r="2" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>2</v>
-      </c>
-      <c r="B3" t="str">
-        <v>34.34397</v>
-      </c>
-      <c r="C3" t="str">
-        <v>134.03447778</v>
-      </c>
-      <c r="D3" t="str">
-        <v>高松市歴史資料館</v>
-      </c>
-      <c r="E3" t="str">
-        <v>高松市昭和町一丁目2-20</v>
-      </c>
-      <c r="F3" t="str">
-        <v>087-861-4520</v>
-      </c>
-      <c r="G3" t="str">
-        <v>https://www.city.takamatsu.kagawa.jp/kurashi/kosodate/bunka/rekishi/index.html</v>
-      </c>
-      <c r="H3" t="str">
-        <v/>
-      </c>
-      <c r="I3" t="str">
-        <v>火水木金土日</v>
-      </c>
-      <c r="J3" t="str">
-        <v>09:00</v>
-      </c>
-      <c r="K3" t="str">
-        <v>17:00</v>
-      </c>
-      <c r="L3" t="str">
-        <v>入館は16：30まで。月曜日（祝日の場合は翌平日）、年末年始（12/29～1/3）利用不可</v>
+    <row r="3" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>3</v>
-      </c>
-      <c r="B4" t="str">
-        <v>34.35271028</v>
-      </c>
-      <c r="C4" t="str">
-        <v>134.13403806</v>
-      </c>
-      <c r="D4" t="str">
-        <v>高松市石の民俗資料館</v>
-      </c>
-      <c r="E4" t="str">
-        <v>高松市牟礼町牟礼1810</v>
-      </c>
-      <c r="F4" t="str">
-        <v>087-845-8484</v>
-      </c>
-      <c r="G4" t="str">
-        <v>https://www.city.takamatsu.kagawa.jp/kurashi/kosodate/bunka/ishimin/index.html</v>
-      </c>
-      <c r="H4" t="str">
-        <v/>
-      </c>
-      <c r="I4" t="str">
-        <v>火水木金土日</v>
-      </c>
-      <c r="J4" t="str">
-        <v>09:00</v>
-      </c>
-      <c r="K4" t="str">
-        <v>17:00</v>
-      </c>
-      <c r="L4" t="str">
-        <v>入館は16：30まで。月曜日（祝日の場合は翌平日）、年末年始（12/29～1/3）利用不可</v>
+    <row r="4" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>4</v>
-      </c>
-      <c r="B5" t="str">
-        <v>34.23924278</v>
-      </c>
-      <c r="C5" t="str">
-        <v>134.02162667</v>
-      </c>
-      <c r="D5" t="str">
-        <v>高松市香南歴史民俗郷土館</v>
-      </c>
-      <c r="E5" t="str">
-        <v>高松市香南町由佐253-1</v>
-      </c>
-      <c r="F5" t="str">
-        <v>087-879-0717</v>
-      </c>
-      <c r="G5" t="str">
-        <v>https://www.city.takamatsu.kagawa.jp/kurashi/kosodate/bunka/kounanrekishi/index.html</v>
-      </c>
-      <c r="H5" t="str">
-        <v/>
-      </c>
-      <c r="I5" t="str">
-        <v>火水木金土日</v>
-      </c>
-      <c r="J5" t="str">
-        <v>09:00</v>
-      </c>
-      <c r="K5" t="str">
-        <v>17:00</v>
-      </c>
-      <c r="L5" t="str">
-        <v>入館は16：30まで。月曜日（祝日の場合は翌平日）、年末年始（12/29～1/3）利用不可</v>
+    <row r="5" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>5</v>
-      </c>
-      <c r="B6" t="str">
-        <v>34.30283944</v>
-      </c>
-      <c r="C6" t="str">
-        <v>133.94675889</v>
-      </c>
-      <c r="D6" t="str">
-        <v>高松市讃岐国分寺跡資料館</v>
-      </c>
-      <c r="E6" t="str">
-        <v>高松市国分寺町国分2177-1</v>
-      </c>
-      <c r="F6" t="str">
-        <v>087-874-8840</v>
-      </c>
-      <c r="G6" t="str">
-        <v>https://www.city.takamatsu.kagawa.jp/kurashi/kosodate/bunka/sanuki.html</v>
-      </c>
-      <c r="H6" t="str">
-        <v/>
-      </c>
-      <c r="I6" t="str">
-        <v>火水木金土日</v>
-      </c>
-      <c r="J6" t="str">
-        <v>09:00</v>
-      </c>
-      <c r="K6" t="str">
-        <v>16:30</v>
-      </c>
-      <c r="L6" t="str">
-        <v>入館は16：30まで。月曜日（祝日の場合は翌平日）、年末年始（12/29～1/3）利用不可</v>
+    <row r="6" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" t="s">
+        <v>49</v>
+      </c>
+      <c r="L6" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>6</v>
-      </c>
-      <c r="B7" t="str">
-        <v>34.3435211</v>
-      </c>
-      <c r="C7" t="str">
-        <v>134.0458211</v>
-      </c>
-      <c r="D7" t="str">
-        <v>高松市埋蔵文化財センター</v>
-      </c>
-      <c r="E7" t="str">
-        <v>高松市番町一丁目5-1</v>
-      </c>
-      <c r="F7" t="str">
-        <v>087-823-2714</v>
-      </c>
-      <c r="G7" t="str">
-        <v>http://www.takamatsu-webmuseum.jp/maizou/</v>
-      </c>
-      <c r="H7" t="str">
-        <v/>
-      </c>
-      <c r="I7" t="str">
-        <v>月火水木金</v>
-      </c>
-      <c r="J7" t="str">
-        <v>09:00</v>
-      </c>
-      <c r="K7" t="str">
-        <v>17:00</v>
-      </c>
-      <c r="L7" t="str">
-        <v>祝日、年末年始（12/29～1/3）利用不可</v>
+    <row r="7" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" t="s">
+        <v>56</v>
+      </c>
+      <c r="J7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L7" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L7"/>
+    <ignoredError sqref="A1:L6 A7:F7 H7:L7" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>